--- a/outputs/scores-18AI8116-04-2024.xlsx
+++ b/outputs/scores-18AI8116-04-2024.xlsx
@@ -55,10 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,63 +439,72 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+    <row r="1" ht="12" customHeight="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>USN</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>q0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>q1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>q2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>q3</t>
         </is>
       </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>q4</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Student's Score</t>
+        </is>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" ht="12" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>IDT20AI021</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Sejal Kaur Virdi</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.9</v>
+      <c r="E2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
